--- a/pred_ohlcv/54_21/2019-11-13 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 IOST ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1049221.7033</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1049321.7033</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1045846.3369</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1045915.3369</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1045915.3369</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>874818.3434999998</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1994756.6485</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2466367.9124</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1892900.6966</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1998825.4581</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1998752.2851</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1838122.8692</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1838122.8692</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1832611.313</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1843976.8665</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1852980.4398</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1828853.3984</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2120432.4287</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2288933.8611</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2132613.0045</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2060213.0045</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2048353.6845</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2048253.6845</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1979413.6306</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1984941.4593</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1984841.4593</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1918797.7246</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1929207.6715</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1990695.2873</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1990695.2873</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>925352.852</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>934821.6414</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>884591.5882999999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>876158.5878</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>634654.443</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>643236.443</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>541066.5168999999</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>541166.5168999999</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>541236.5168999999</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>451915.4063999999</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>452584.4063999999</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>453684.4063999999</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>654373.3986999999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>654373.3986999999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>697162.45</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>5443835.6651</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>5443905.6651</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>5304341.206</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>5304411.206</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>5383553.242400001</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>5383553.242400001</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>5383623.242400001</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>5383623.242400001</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-13 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 IOST ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1049221.7033</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1049321.7033</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1045846.3369</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1045915.3369</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1045915.3369</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>740722.3368999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>874818.3434999998</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1994756.6485</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2466367.9124</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1892900.6966</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1998825.4581</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1998752.2851</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1838122.8692</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1838122.8692</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1832611.313</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1843976.8665</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1852980.4398</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1828853.3984</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2120432.4287</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2288933.8611</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2132613.0045</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2060213.0045</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2048353.6845</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2048253.6845</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1979413.6306</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1984941.4593</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1984841.4593</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1918797.7246</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1929207.6715</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1990695.2873</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1990695.2873</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>925352.852</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>934821.6414</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>884591.5882999999</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>876158.5878</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>462113.1025999999</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>453910.4063999999</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>388129.0707999999</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>388352.0707999999</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>654373.3986999999</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>654373.3986999999</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>697162.45</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>5483898.6798</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>5481898.6798</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>5481998.6798</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>5481898.6798</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>5481998.6798</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>5481928.6798</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>5482028.6798</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>5481958.6798</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>5482058.6798</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>5481988.6798</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>5482058.6798</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>5443935.6651</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>5443835.6651</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>5443905.6651</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>5304341.206</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>5304411.206</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>5291018.3416</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>5168221.206</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>5168308.433900001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>5075903.433900001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>5383553.242400001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>5383553.242400001</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>5383623.242400001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>5383623.242400001</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
